--- a/src/images/memeTags.xlsx
+++ b/src/images/memeTags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afzaman\Documents\Repositories\photo-tagger\src\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1284A0A6-C086-4F9D-A1E1-C08E0770FEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E0F5F-AE9C-4853-8D63-F785A07BCF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{B353C60D-5E75-4583-8C80-C83A97E56508}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B353C60D-5E75-4583-8C80-C83A97E56508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Believe It!</t>
+  </si>
+  <si>
+    <t>Aww shit, here we go again</t>
   </si>
 </sst>
 </file>
@@ -517,12 +523,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>A2/7956</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E2">
-        <f>B2/7956</f>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -539,12 +543,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="0">A3/7956</f>
-        <v>6.7873303167420809E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E28" si="1">B3/7956</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -561,12 +563,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.18602312719959779</v>
+        <v>0.24</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -583,12 +583,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.35105580693815985</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -605,12 +603,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.49522373051784818</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -627,12 +623,10 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.79097536450477623</v>
+        <v>0.84</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -649,12 +643,10 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>9.4645550527903466E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>9.1377576671694313E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -671,12 +663,10 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.60997988939165415</v>
+        <v>0.65</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.13071895424836602</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -693,12 +683,10 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.69632981397687277</v>
+        <v>0.74</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.25062845651080945</v>
+        <v>0.37</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -715,12 +703,10 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.32591754650578181</v>
+        <v>0.37</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.22800402212166918</v>
+        <v>0.37</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -737,12 +723,10 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.12820512820512819</v>
+        <v>0.17</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.2933634992458522</v>
+        <v>0.4</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -759,12 +743,10 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.43577174459527401</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -781,12 +763,10 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.28733031674208143</v>
+        <v>0.33</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.43489190548014078</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -803,12 +783,10 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.47083961789844142</v>
+        <v>0.51</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.42056309703368527</v>
+        <v>0.54</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -825,12 +803,10 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.61161387631975872</v>
+        <v>0.66</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.55216189039718455</v>
+        <v>0.7</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -847,12 +823,10 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.35947712418300654</v>
+        <v>0.39</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.53795877325289088</v>
+        <v>0.66</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -869,12 +843,10 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.27061337355455001</v>
+        <v>0.32</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <v>0.71</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -891,15 +863,13 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.65686274509803921</v>
+        <v>0.78</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,12 +883,10 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>7.0387129210658622E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.77325289089994975</v>
+        <v>0.9</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -935,12 +903,10 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.36450477626948213</v>
+        <v>0.41</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.68866264454499748</v>
+        <v>0.81</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -957,12 +923,10 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.62845651080945197</v>
+        <v>0.68</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.80178481649069888</v>
+        <v>0.93</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -979,12 +943,10 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.9120160884866767</v>
+        <v>0.97</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.75980392156862742</v>
+        <v>0.87</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1001,15 +963,13 @@
         <v>24</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.76030668677727498</v>
+        <v>0.82</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.66264454499748615</v>
+        <v>0.8</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,12 +983,10 @@
         <v>25</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.74849170437405732</v>
+        <v>0.79</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.88725490196078427</v>
+        <v>1.01</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -1045,12 +1003,10 @@
         <v>26</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.25075414781297134</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.87129210658622425</v>
+        <v>0.97</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -1067,12 +1023,10 @@
         <v>27</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.54487179487179482</v>
+        <v>0.59</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
+        <v>0.8</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -1089,12 +1043,10 @@
         <v>28</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.35558069381598795</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0.40623428858722976</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
